--- a/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BE4BBE-0AF2-41B5-B8A7-C5802C4FBA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -187,18 +193,49 @@
   <si>
     <t>非数值类</t>
   </si>
+  <si>
+    <t>丐帮为江湖武林间第一大帮，丐帮弟子多为乞丐，遍布三江五湖。丐帮帮主实力超群，却神龙见首不见尾，素有义薄云天的威名。丐帮行为举止介乎正邪之间，常常因为乞讨与其他门派起争执，但却会在其他门派陷入危机时予以援手。丐帮弟子穿着破烂，持普通木棍作为武器，使得一手打狗棒法绝技，有言道：「丐帮所到之处，方圆十里无狗。」</t>
+  </si>
+  <si>
+    <t>天下武功出少林。少林派是江湖上历史最为悠久的门派，传承数十代，以「少林七十二绝技」闻名于世，少林僧人实力超绝，玄空方丈更是其中翘楚。少林派不喜争斗，以「和」字与武林同道相交。少林派以禅入武，其中武学博大精深，拳、掌、指、腿、刀、剑、棍无一不精。少林藏经阁是武林中最为神秘的地方，堪称「天下武学宝库」，相传武林中的绝世高手都会潜入少林，研习武学，不过好像大多都留在其中打扫卫生。</t>
+  </si>
+  <si>
+    <t>武当长久以来一直被中原武林视为可与少林比肩的一大门派，与少林并称武林的泰山北斗。但武当武功与少林区别很大，少林长于博，武当长于精，武当派武功自来便以少而精著称。武当自创派以来就以其独特的太极武功享誉江湖。武当的武功讲究后发制人，先发者制于人，所以武当的武功无处不体现出侠义精神，其掌门张山峰张真人练功有道，终日睡觉却也可以增长功力，门下称之「龙眠」。</t>
+  </si>
+  <si>
+    <t>峨嵋派源远流长，峨眉门人遇事果断而行事凌厉，想来应是承自峨眉当代掌门绝绝师太。绝绝师太虽然为人正派，但其手段狠辣，武林中也对此颇有微词。峨眉剑法飘逸灵动、阴柔绵软，形成峨嵋派亦柔亦刚，内外相重的武学特点。峨眉门下只有女弟子是中原武林一大未解之谜，有好事之徒散播男弟子在峨眉无心练功的传闻，虽然不实却也说明峨眉武功姿势优美而威力十足，「临敌只须出半手，纵是越女也失魂」。</t>
+  </si>
+  <si>
+    <t>华山派是武林中声名显赫的名门正派，而华山派的武功经过百多年的发展，已经形成一整套完善的体系，华山内功和剑法堪称双绝。 华山剑意取自华山山势奇险，华山内功取自华山云霞厚积。但历代以来，二者兼修者愈发稀少，擅剑法者轻内功，擅内功者轻剑法，时至今日，华山派连掌门都是剑气各出一人担任。因此武林同门与华山派切磋时有个不成文的规定，与华山派比试须得二对二，不然就难以同时领教华山剑气双绝。</t>
+  </si>
+  <si>
+    <t>五毒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒教，又名「五仙教」，由五毒神君于南诏所创，专攻奇门毒术。 教中弟子将青蛇、蜈蚣、蝎子、蜘蛛、蟾蜍并称「五圣」。五毒教至宝「五宝花蜜酒」，便是用此五种毒物加上数十种奇花异草所酿，是大补之物。为酿此酒，五毒弟子日夜与毒物相处，为免受毒物所伤，五毒弟子都练得一手隔空取物的好鞭法。多年练习，五毒弟子足不出户也能依靠鞭子解决日常活动，所用软鞭也因此染上剧毒，不可触碰。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教又称摩教，起源于西域以西，与中原武林不睦。盖中原武林笃信儒释道，魔教远来中土为了传教不择手段，凭借一手魔刀，强征武林各派弟子入教，被迫入教的人会被夺取功力，蓄于少数人的身上，魔教教典云「焚尽残躯，熊熊圣火。杳杳光辉，同归日月」，传闻现任教主为「天魔」司马明，及麾下日月法王身上汇聚了上万人的功力，中原武林数次讨伐都在魔教的手下铩羽而归。</t>
+  </si>
+  <si>
+    <t>魔教</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥派行事潇洒而低调，因此在江湖上少有人知道。逍遥派的武功讲究轻灵飘逸，闲雅清隽，威力无穷，习得其一，则能在武林中所向披靡。弟子男俊女靓，俊朗不凡，人人潇洒飘逸，聪慧异常。逍遥派弟子不用武器，讲究「乘天地之正，御六气之辩」，借由天地的气进行活动。掌门逍遥子修行多年，几近飞升，因此门派周围的村落中总有山上仙人的传说。</t>
+  </si>
+  <si>
+    <t>逍遥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,151 +264,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,198 +279,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -719,253 +438,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,116 +450,78 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1367,181 +806,221 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="5.875" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="3.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="18" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="18" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="19">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19">
-        <v>111</v>
-      </c>
-      <c r="D5" s="19">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="19">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19">
-        <v>222</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="19">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="19">
-        <v>333</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="19">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="19">
-        <v>444</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="19">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19">
-        <v>5555</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5">
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A3:C15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.1083333333333" customWidth="1"/>
-    <col min="6" max="10" width="24.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="6" max="10" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.5" spans="2:10">
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1560,127 +1039,127 @@
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="12"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" spans="2:10">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:10">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" ht="16.5" spans="2:10">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" ht="16.5" spans="2:10">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
+    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" ht="16.5" spans="2:10">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" ht="16.5" spans="2:10">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
+    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="2:15">
+      <c r="F9" s="14"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1696,145 +1175,140 @@
       <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B13" s="4" t="s">
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+      <c r="C15" s="3">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11"/>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11"/>
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
@@ -1844,26 +1318,28 @@
     <mergeCell ref="F13:F17"/>
     <mergeCell ref="G4:G9"/>
     <mergeCell ref="J4:J9"/>
+    <mergeCell ref="H4:I9"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
     <mergeCell ref="L13:O17"/>
-    <mergeCell ref="H4:I9"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BE4BBE-0AF2-41B5-B8A7-C5802C4FBA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C695809-ABBF-4DB6-9C06-40C044672C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,6 +247,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -254,6 +255,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -261,11 +263,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -462,6 +466,45 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,45 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,16 +1043,16 @@
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="3">
@@ -1060,22 +1064,22 @@
       <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="12" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -1085,14 +1089,14 @@
       <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="15"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="3">
         <v>3</v>
       </c>
@@ -1102,14 +1106,14 @@
       <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="15"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -1119,14 +1123,14 @@
       <c r="E7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="15"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1136,14 +1140,14 @@
       <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="15"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -1153,11 +1157,11 @@
       <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="16"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -1175,22 +1179,22 @@
       <c r="F12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9" t="s">
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="3">
@@ -1202,25 +1206,25 @@
       <c r="E13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3">
         <v>1</v>
       </c>
@@ -1230,19 +1234,19 @@
       <c r="E14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="3">
         <v>1</v>
       </c>
@@ -1252,19 +1256,19 @@
       <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3">
         <v>1</v>
       </c>
@@ -1274,19 +1278,19 @@
       <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="3">
         <v>1</v>
       </c>
@@ -1296,19 +1300,25 @@
       <c r="E17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L13:O17"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
@@ -1319,12 +1329,6 @@
     <mergeCell ref="G4:G9"/>
     <mergeCell ref="J4:J9"/>
     <mergeCell ref="H4:I9"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L13:O17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDC0601-C90B-4C26-B621-02CF0BAE8A60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C695809-ABBF-4DB6-9C06-40C044672C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +75,125 @@
     <t>华山</t>
   </si>
   <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>第1位</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>第2-3位</t>
+  </si>
+  <si>
+    <t>第4-5位</t>
+  </si>
+  <si>
+    <t>第6-7位</t>
+  </si>
+  <si>
+    <t>第8-11位</t>
+  </si>
+  <si>
+    <t>第12位</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>通用或多个英雄</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>装备部位
+01=武器;03=头饰;05=肩甲;07=上装;09=下装;11=鞋子;13=项链;15=耳环;17=手镯;19=戒指</t>
+  </si>
+  <si>
+    <t>装备品质
+01=绿色;03=蓝色;05=紫色;07=金色;09=橙色;11=红色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+编号0001-9999</t>
+  </si>
+  <si>
+    <t>物品等级档位
+1=最低等级；2=次低等级；3=平均等级；4=次高等级；5=最高等级</t>
+  </si>
+  <si>
+    <t>文森特</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>凯瑟琳</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>第4-8位:道具编号</t>
+  </si>
+  <si>
+    <t>第9-10位:子分类辨识</t>
+  </si>
+  <si>
+    <t>第11-12位:品质辨识</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>消耗品</t>
+  </si>
+  <si>
+    <t>道具编号00001-99999</t>
+  </si>
+  <si>
+    <t>01=经验增加;02=生命回复</t>
+  </si>
+  <si>
+    <t>道具品质
+00=白色;01=绿色;
+02=蓝色;03=紫色;
+04=金色;05=橙色;
+06=红色</t>
+  </si>
+  <si>
+    <t>宝箱</t>
+  </si>
+  <si>
+    <t>装备材料</t>
+  </si>
+  <si>
+    <t>数值类</t>
+  </si>
+  <si>
+    <t>非数值类</t>
+  </si>
+  <si>
     <t>丐帮为江湖武林间第一大帮，丐帮弟子多为乞丐，遍布三江五湖。丐帮帮主实力超群，却神龙见首不见尾，素有义薄云天的威名。丐帮行为举止介乎正邪之间，常常因为乞讨与其他门派起争执，但却会在其他门派陷入危机时予以援手。丐帮弟子穿着破烂，持普通木棍作为武器，使得一手打狗棒法绝技，有言道：「丐帮所到之处，方圆十里无狗。」</t>
   </si>
   <si>
@@ -89,38 +210,53 @@
   </si>
   <si>
     <t>五毒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>五毒教，又名「五仙教」，由五毒神君于南诏所创，专攻奇门毒术。 教中弟子将青蛇、蜈蚣、蝎子、蜘蛛、蟾蜍并称「五圣」。五毒教至宝「五宝花蜜酒」，便是用此五种毒物加上数十种奇花异草所酿，是大补之物。为酿此酒，五毒弟子日夜与毒物相处，为免受毒物所伤，五毒弟子都练得一手隔空取物的好鞭法。多年练习，五毒弟子足不出户也能依靠鞭子解决日常活动，所用软鞭也因此染上剧毒，不可触碰。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>魔教又称摩教，起源于西域以西，与中原武林不睦。盖中原武林笃信儒释道，魔教远来中土为了传教不择手段，凭借一手魔刀，强征武林各派弟子入教，被迫入教的人会被夺取功力，蓄于少数人的身上，魔教教典云「焚尽残躯，熊熊圣火。杳杳光辉，同归日月」，传闻现任教主为「天魔」司马明，及麾下日月法王身上汇聚了上万人的功力，中原武林数次讨伐都在魔教的手下铩羽而归。</t>
   </si>
   <si>
     <t>魔教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>逍遥派行事潇洒而低调，因此在江湖上少有人知道。逍遥派的武功讲究轻灵飘逸，闲雅清隽，威力无穷，习得其一，则能在武林中所向披靡。弟子男俊女靓，俊朗不凡，人人潇洒飘逸，聪慧异常。逍遥派弟子不用武器，讲究「乘天地之正，御六气之辩」，借由天地的气进行活动。掌门逍遥子修行多年，几近飞升，因此门派周围的村落中总有山上仙人的传说。</t>
   </si>
   <si>
     <t>逍遥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -138,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,8 +287,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -175,17 +317,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,183 +820,183 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="3.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
+        <v>53</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2">
+        <v>59</v>
+      </c>
+      <c r="D10" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
+      <c r="B11" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
+      <c r="B12" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5">
         <v>8</v>
       </c>
     </row>
@@ -677,8 +1004,346 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C15">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="6" max="10" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="2:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L13:O17"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="H4:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA4F462-5393-4E45-86F3-99DF6F3AE49C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD89D1-A176-40C2-AC47-C65AA1835EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3228" yWindow="204" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13812" yWindow="1476" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -110,11 +110,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中立</t>
+    <t>山贼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>包括山贼、刺客、倭寇</t>
+    <t>刺客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>倭寇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +144,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -187,12 +199,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,11 +512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -683,13 +698,35 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <v>97</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>98</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>99</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD89D1-A176-40C2-AC47-C65AA1835EA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13812" yWindow="1476" windowWidth="16284" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,72 +55,71 @@
     <t>丐帮</t>
   </si>
   <si>
+    <t>丐帮为江湖武林间第一大帮，丐帮弟子多为乞丐，遍布三江五湖。丐帮帮主实力超群，却神龙见首不见尾，素有义薄云天的威名。丐帮行为举止介乎正邪之间，常常因为乞讨与其他门派起争执，但却会在其他门派陷入危机时予以援手。丐帮弟子穿着破烂，持普通木棍作为武器，使得一手打狗棒法绝技，有言道：「丐帮所到之处，方圆十里无狗。」</t>
+  </si>
+  <si>
     <t>少林</t>
   </si>
   <si>
+    <t>天下武功出少林。少林派是江湖上历史最为悠久的门派，传承数十代，以「少林七十二绝技」闻名于世，少林僧人实力超绝，玄空方丈更是其中翘楚。少林派不喜争斗，以「和」字与武林同道相交。少林派以禅入武，其中武学博大精深，拳、掌、指、腿、刀、剑、棍无一不精。少林藏经阁是武林中最为神秘的地方，堪称「天下武学宝库」，相传武林中的绝世高手都会潜入少林，研习武学，不过好像大多都留在其中打扫卫生。</t>
+  </si>
+  <si>
     <t>武当</t>
   </si>
   <si>
+    <t>武当长久以来一直被中原武林视为可与少林比肩的一大门派，与少林并称武林的泰山北斗。但武当武功与少林区别很大，少林长于博，武当长于精，武当派武功自来便以少而精著称。武当自创派以来就以其独特的太极武功享誉江湖。武当的武功讲究后发制人，先发者制于人，所以武当的武功无处不体现出侠义精神，其掌门张山峰张真人练功有道，终日睡觉却也可以增长功力，门下称之「龙眠」。</t>
+  </si>
+  <si>
     <t>峨眉</t>
   </si>
   <si>
+    <t>峨嵋派源远流长，峨眉门人遇事果断而行事凌厉，想来应是承自峨眉当代掌门绝绝师太。绝绝师太虽然为人正派，但其手段狠辣，武林中也对此颇有微词。峨眉剑法飘逸灵动、阴柔绵软，形成峨嵋派亦柔亦刚，内外相重的武学特点。峨眉门下只有女弟子是中原武林一大未解之谜，有好事之徒散播男弟子在峨眉无心练功的传闻，虽然不实却也说明峨眉武功姿势优美而威力十足，「临敌只须出半手，纵是越女也失魂」。</t>
+  </si>
+  <si>
     <t>华山</t>
   </si>
   <si>
-    <t>丐帮为江湖武林间第一大帮，丐帮弟子多为乞丐，遍布三江五湖。丐帮帮主实力超群，却神龙见首不见尾，素有义薄云天的威名。丐帮行为举止介乎正邪之间，常常因为乞讨与其他门派起争执，但却会在其他门派陷入危机时予以援手。丐帮弟子穿着破烂，持普通木棍作为武器，使得一手打狗棒法绝技，有言道：「丐帮所到之处，方圆十里无狗。」</t>
-  </si>
-  <si>
-    <t>天下武功出少林。少林派是江湖上历史最为悠久的门派，传承数十代，以「少林七十二绝技」闻名于世，少林僧人实力超绝，玄空方丈更是其中翘楚。少林派不喜争斗，以「和」字与武林同道相交。少林派以禅入武，其中武学博大精深，拳、掌、指、腿、刀、剑、棍无一不精。少林藏经阁是武林中最为神秘的地方，堪称「天下武学宝库」，相传武林中的绝世高手都会潜入少林，研习武学，不过好像大多都留在其中打扫卫生。</t>
-  </si>
-  <si>
-    <t>武当长久以来一直被中原武林视为可与少林比肩的一大门派，与少林并称武林的泰山北斗。但武当武功与少林区别很大，少林长于博，武当长于精，武当派武功自来便以少而精著称。武当自创派以来就以其独特的太极武功享誉江湖。武当的武功讲究后发制人，先发者制于人，所以武当的武功无处不体现出侠义精神，其掌门张山峰张真人练功有道，终日睡觉却也可以增长功力，门下称之「龙眠」。</t>
-  </si>
-  <si>
-    <t>峨嵋派源远流长，峨眉门人遇事果断而行事凌厉，想来应是承自峨眉当代掌门绝绝师太。绝绝师太虽然为人正派，但其手段狠辣，武林中也对此颇有微词。峨眉剑法飘逸灵动、阴柔绵软，形成峨嵋派亦柔亦刚，内外相重的武学特点。峨眉门下只有女弟子是中原武林一大未解之谜，有好事之徒散播男弟子在峨眉无心练功的传闻，虽然不实却也说明峨眉武功姿势优美而威力十足，「临敌只须出半手，纵是越女也失魂」。</t>
-  </si>
-  <si>
     <t>华山派是武林中声名显赫的名门正派，而华山派的武功经过百多年的发展，已经形成一整套完善的体系，华山内功和剑法堪称双绝。 华山剑意取自华山山势奇险，华山内功取自华山云霞厚积。但历代以来，二者兼修者愈发稀少，擅剑法者轻内功，擅内功者轻剑法，时至今日，华山派连掌门都是剑气各出一人担任。因此武林同门与华山派切磋时有个不成文的规定，与华山派比试须得二对二，不然就难以同时领教华山剑气双绝。</t>
   </si>
   <si>
     <t>五毒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>五毒教，又名「五仙教」，由五毒神君于南诏所创，专攻奇门毒术。 教中弟子将青蛇、蜈蚣、蝎子、蜘蛛、蟾蜍并称「五圣」。五毒教至宝「五宝花蜜酒」，便是用此五种毒物加上数十种奇花异草所酿，是大补之物。为酿此酒，五毒弟子日夜与毒物相处，为免受毒物所伤，五毒弟子都练得一手隔空取物的好鞭法。多年练习，五毒弟子足不出户也能依靠鞭子解决日常活动，所用软鞭也因此染上剧毒，不可触碰。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔教</t>
   </si>
   <si>
     <t>魔教又称摩教，起源于西域以西，与中原武林不睦。盖中原武林笃信儒释道，魔教远来中土为了传教不择手段，凭借一手魔刀，强征武林各派弟子入教，被迫入教的人会被夺取功力，蓄于少数人的身上，魔教教典云「焚尽残躯，熊熊圣火。杳杳光辉，同归日月」，传闻现任教主为「天魔」司马明，及麾下日月法王身上汇聚了上万人的功力，中原武林数次讨伐都在魔教的手下铩羽而归。</t>
   </si>
   <si>
-    <t>魔教</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>逍遥</t>
   </si>
   <si>
     <t>逍遥派行事潇洒而低调，因此在江湖上少有人知道。逍遥派的武功讲究轻灵飘逸，闲雅清隽，威力无穷，习得其一，则能在武林中所向披靡。弟子男俊女靓，俊朗不凡，人人潇洒飘逸，聪慧异常。逍遥派弟子不用武器，讲究「乘天地之正，御六气之辩」，借由天地的气进行活动。掌门逍遥子修行多年，几近飞升，因此门派周围的村落中总有山上仙人的传说。</t>
   </si>
   <si>
-    <t>逍遥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>山贼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>刺客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>倭寇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,26 +132,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,12 +295,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -195,9 +509,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -207,21 +763,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -506,29 +1106,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44166666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.88333333333333" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.3333333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.88333333333333" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +1143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -556,7 +1157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -570,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -584,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -592,60 +1193,60 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -654,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -668,35 +1269,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>97</v>
       </c>
@@ -707,7 +1308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>98</v>
       </c>
@@ -718,7 +1319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>99</v>
       </c>
@@ -730,11 +1331,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C14">
+  <sortState ref="A3:C14">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
+++ b/Tables/Sources/gameplay/Clan/ClanConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ian.yin\Documents\simswordsman\Tables\Sources\gameplay\Clan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A92E5A0-CCFA-4895-B7EB-150DC97CAABC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED43F75-7F7D-4F98-9C0F-7E284BF267EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9312" yWindow="708" windowWidth="13116" windowHeight="10836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>野兽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪魔</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -517,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -703,45 +707,56 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>96</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>97</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>96</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <v>98</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>99</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
